--- a/02_Machbarkeit/Nutzwert Lizenzserver.xlsx
+++ b/02_Machbarkeit/Nutzwert Lizenzserver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITP\LocalAdmin\project-management\02_Machbarkeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE28C1ED-BCB6-4CA7-88E5-493B3E9099A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F70C8-B480-459D-A81E-7807D7C0A577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -822,6 +822,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -833,7 +846,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -880,24 +893,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,9 +965,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,42 +983,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="2" builtinId="20"/>
@@ -1255,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,36 +1284,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="66"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,10 +1334,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="51">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1360,7 +1374,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1409,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1444,7 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
@@ -1468,10 +1482,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="52">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1508,7 +1522,7 @@
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="49"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1543,7 +1557,7 @@
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1592,7 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
@@ -1616,10 +1630,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="52">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1656,7 +1670,7 @@
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1705,7 @@
     </row>
     <row r="13" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1726,7 +1740,7 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1764,10 +1778,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="52">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1804,15 +1818,15 @@
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="49"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="31">
         <f>((B$15/100)*(E16/100))*100</f>
         <v>5.4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="76">
         <v>45</v>
       </c>
       <c r="F16" s="13">
@@ -1839,7 +1853,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="26"/>
@@ -1852,7 +1866,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
@@ -1890,10 +1904,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="52">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1930,7 +1944,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="49"/>
-      <c r="B20" s="51"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1965,7 +1979,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2000,7 +2014,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="16" t="s">
         <v>11</v>
       </c>
@@ -2038,10 +2052,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="52">
         <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2078,7 +2092,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
@@ -2113,7 +2127,7 @@
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2162,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="16" t="s">
         <v>11</v>
       </c>
@@ -2186,10 +2200,10 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="68">
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2225,8 +2239,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="56"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2260,8 +2274,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="4" t="s">
         <v>35</v>
       </c>
@@ -2295,8 +2309,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="57"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="16" t="s">
         <v>11</v>
       </c>
@@ -2334,10 +2348,10 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="61">
+      <c r="B31" s="73">
         <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2373,8 +2387,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
@@ -2408,8 +2422,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="24"/>
       <c r="D33" s="34"/>
       <c r="E33" s="35"/>
@@ -2421,8 +2435,8 @@
       <c r="K33" s="28"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="16" t="s">
         <v>11</v>
       </c>
@@ -2507,25 +2521,40 @@
       <c r="E36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="46" t="e">
-        <f>1+IF(I35&gt;G35,1,0)+IF(#REF!&gt;G35,1,0)+IF(K35&gt;G35,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="47"/>
-      <c r="H36" s="46" t="e">
-        <f>1+IF(K35&gt;I35,1,0)+IF(G35&gt;I35,1,0)+IF(#REF!&gt;I35,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="46" t="e">
-        <f>1+IF(#REF!&gt;K35,1,0)+IF(G35&gt;K35,1,0)+IF(I35&gt;K35,1,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="47"/>
+      <c r="F36" s="63">
+        <f>1+IF(I35&gt;G35,1,0)+IF(K35&gt;G35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="63">
+        <f>1+IF(K35&gt;I35,1,0)+IF(G35&gt;I35,1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="64"/>
+      <c r="J36" s="63">
+        <f>1+IF(G35&gt;K35,1,0)+IF(I35&gt;K35,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A3:A6"/>
@@ -2538,21 +2567,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
